--- a/biology/Médecine/Hystérotomie/Hystérotomie.xlsx
+++ b/biology/Médecine/Hystérotomie/Hystérotomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyst%C3%A9rotomie</t>
+          <t>Hystérotomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hystérotomie est le fait d'inciser l'utérus, le plus souvent lors d'une césarienne. Elle est le plus souvent transversale et située au niveau du segment inférieur de l'utérus, hystérotomie segmentaire. Plus rarement, elle peut être verticale, segmento-corporéale ou corporéale.
  Portail de la médecine                     </t>
